--- a/src/main/resources/searchKeys.xlsx
+++ b/src/main/resources/searchKeys.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">Test Cases</t>
   </si>
   <si>
     <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testadmin</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -117,8 +120,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -141,10 +148,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.22"/>
@@ -161,8 +168,12 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
